--- a/Andrew-annotations/CTAS_Q1_2008.xlsx
+++ b/Andrew-annotations/CTAS_Q1_2008.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB6F115-839A-450F-8490-722AA0B6789B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B39C81A-418A-4DF9-8AFE-A324AB65BF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -736,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="118" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -835,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -867,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -899,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -922,16 +935,16 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -954,16 +967,16 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -995,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1018,16 +1031,16 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1050,16 +1063,16 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1091,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1117,13 +1130,13 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1146,16 +1159,16 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1210,10 +1223,10 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1274,16 +1287,16 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1306,16 +1319,16 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1338,13 +1351,13 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1370,16 +1383,16 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1411,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1443,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1466,16 +1479,16 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1533,13 +1546,13 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -1565,13 +1578,13 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1591,7 +1604,7 @@
         <v>67</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1603,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -1629,13 +1642,13 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -1667,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -1699,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -1722,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1731,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1754,16 +1767,16 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -1795,7 +1808,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1821,13 +1834,13 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -1853,13 +1866,13 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -1891,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -1917,13 +1930,13 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -1978,10 +1991,10 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -2019,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -2045,13 +2058,13 @@
         <v>2</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -2077,13 +2090,13 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -2170,16 +2183,16 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -2234,16 +2247,16 @@
         <v>2</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>2</v>
